--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -269,7 +269,7 @@
     <t>FormationSpecialiseeTransversale.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -307,7 +307,7 @@
     <t>FormationSpecialiseeTransversale.formationSpecialiseeTransversale</t>
   </si>
   <si>
-    <t xml:space="preserve"> La Formation spécialisée transversale (FST) vient compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
+    <t>La Formation spécialisée transversale (FST) vient compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R348-FormationSpecialiseeTransversale?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -272,7 +272,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -310,7 +310,7 @@
     <t>La Formation spécialisée transversale (FST) vient compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R348-FormationSpecialiseeTransversale?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R348-FormationSpecialiseeTransversale/FHIR/TRE-R348-FormationSpecialiseeTransversale?vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.1875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="104.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>La formation spécialisée transversale est une formation venant compléter le cursus de l’interne à partir de la phase d’approfondissement, et lui permet d’acquérir les compétences pour exercer la surspécialité correspondante dans le cadre de sa spécialité.Dans le cadre du modèle, une formation spécialisée transversale est considérée comme un type de diplôme. La classe FormationSpecialiseeTransversale est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -544,39 +544,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -584,26 +586,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -661,112 +663,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,95 +780,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -878,23 +880,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -908,26 +910,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -937,34 +939,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -976,23 +978,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1006,26 +1008,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1035,34 +1037,34 @@
         <v>85</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1074,23 +1076,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>88</v>
@@ -1104,65 +1106,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>92</v>
@@ -1204,65 +1206,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1274,23 +1276,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1304,26 +1306,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1333,34 +1335,34 @@
         <v>97</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FormationSpecialiseeTransversale.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/FormationSpecialiseeTransversale</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/FormationSpecialiseeTransversale</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>
